--- a/cypress/fixtures/users01.xlsx
+++ b/cypress/fixtures/users01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cypress Project\cypress\fixtures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cypress New\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDCCAED5-598C-4603-9C2C-14F5F9518B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FB98EC-C743-4DEE-A760-826B3D2AC410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{6AE6DEC5-BA71-45E4-856F-B1E7BED2CC83}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6AE6DEC5-BA71-45E4-856F-B1E7BED2CC83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -47,16 +47,13 @@
     <t>purva.bharambe@neilsoft.com</t>
   </si>
   <si>
-    <t>divya.chaudhari@neilsoft.com</t>
-  </si>
-  <si>
     <t>saurabh.pawar@neilsoft.com</t>
   </si>
   <si>
     <t>Neilsoft@1</t>
   </si>
   <si>
-    <t>Neilsoft@105</t>
+    <t>5wgZJj&amp;#f</t>
   </si>
 </sst>
 </file>
@@ -115,10 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,16 +455,16 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,29 +472,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cypress/fixtures/users01.xlsx
+++ b/cypress/fixtures/users01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cypress New\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FB98EC-C743-4DEE-A760-826B3D2AC410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FDC5B2-6F02-4BB6-B79C-596F8DC23B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6AE6DEC5-BA71-45E4-856F-B1E7BED2CC83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AE6DEC5-BA71-45E4-856F-B1E7BED2CC83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,16 +44,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>purva.bharambe@neilsoft.com</t>
-  </si>
-  <si>
-    <t>saurabh.pawar@neilsoft.com</t>
-  </si>
-  <si>
-    <t>Neilsoft@1</t>
-  </si>
-  <si>
-    <t>5wgZJj&amp;#f</t>
+    <t>pravin.autade@neilsoft.com</t>
+  </si>
+  <si>
+    <t>Connect@2024</t>
+  </si>
+  <si>
+    <t>divya.chaudhari@neilsoft.com</t>
+  </si>
+  <si>
+    <t>A4rE$UD&amp;Mdge</t>
   </si>
 </sst>
 </file>
@@ -112,12 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,19 +450,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A630F79-6289-44AF-910C-E413074EDDD2}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,25 +470,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
